--- a/deportessalud/entrenamientos.xlsx
+++ b/deportessalud/entrenamientos.xlsx
@@ -17,13 +17,13 @@
     <t>Fuerza</t>
   </si>
   <si>
-    <t>Zona: Pecho, Ejercicio: 5, Series: 1, Repeticiones: 1, Tipo: Sin maquina</t>
+    <t>Zona: Pecho, Ejercicio: mancuernas, Series: 5, Repeticiones: 5, Tipo: Con maquina</t>
   </si>
   <si>
     <t>Resistencia</t>
   </si>
   <si>
-    <t>Resistencia: 5,00 km, Tiempo: 5,00 min, Velocidad media: 60,00 km/h</t>
+    <t>Resistencia: 50,00 km, Tiempo: 45,00 min, Velocidad media: 66,67 km/h</t>
   </si>
 </sst>
 </file>
@@ -94,7 +94,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.02734375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="64.37109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="75.2109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
